--- a/运维/S7/粉料提升机本地模拟数据.xlsx
+++ b/运维/S7/粉料提升机本地模拟数据.xlsx
@@ -1185,7 +1185,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1231,7 +1231,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
